--- a/docs/STAFF-DATA/003.xlsx
+++ b/docs/STAFF-DATA/003.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48ABCB2-1346-438D-B1CB-400743968B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -213,13 +212,37 @@
   </si>
   <si>
     <t>VEC-003-04-083</t>
+  </si>
+  <si>
+    <t>Professor &amp; Head</t>
+  </si>
+  <si>
+    <t>VEC-003-01-173</t>
+  </si>
+  <si>
+    <t>https://scholar.google.co.in/citations?user=M5UgVCMAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Abdul-Razak-Mohamed-Sikkander</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8458-7448</t>
+  </si>
+  <si>
+    <t>https://publons.com/researcher/3826750/abdulrazak-mohamed-sikkander/</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=57195150706</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-abdul-razak-mohamed-sikkander-51485246?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +254,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,16 +296,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -574,16 +608,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="A11:K17"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,15 +649,39 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -649,7 +707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -669,7 +727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -689,7 +747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -721,7 +779,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -744,7 +802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -764,7 +822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -784,7 +842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -817,6 +875,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/docs/STAFF-DATA/003.xlsx
+++ b/docs/STAFF-DATA/003.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -54,7 +49,32 @@
     <t>SIKKANDER</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/003/nan.jpg</t>
+    <t>Professor &amp; Head</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/003/VEC-003-01-173.webp
+.jpg</t>
+  </si>
+  <si>
+    <t>https://scholar.google.co.in/citations?user=M5UgVCMAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Abdul-Razak-Mohamed-Sikkander</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8458-7448</t>
+  </si>
+  <si>
+    <t>https://publons.com/researcher/3826750/abdulrazak-mohamed-sikkander/</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=57195150706</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-abdul-razak-mohamed-sikkander-51485246?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>VEC-003-01-173</t>
   </si>
   <si>
     <t>KAVITHA</t>
@@ -63,7 +83,7 @@
     <t>Assistant Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-088.jpg</t>
+    <t>/static/images/profile_photos/003/VEC-003-04-088.webp</t>
   </si>
   <si>
     <t>https://g.co/kgs/pXiMkTe</t>
@@ -84,7 +104,7 @@
     <t>Dr. M. KAVIYA</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-079.jpg</t>
+    <t>/static/images/profile_photos/003/VEC-003-04-079.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=HFXOLX4AAAAJ</t>
@@ -99,7 +119,7 @@
     <t>RAMA NACHIAR</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-119.jpg</t>
+    <t>/static/images/profile_photos/003/VEC-003-04-119.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=lEyCJOYAAAAJ&amp;hl=en</t>
@@ -114,7 +134,7 @@
     <t xml:space="preserve">Dr.ANITHA </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-108.jpg</t>
+    <t>/static/images/profile_photos/003/VEC-003-04-108.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=DcavHoIAAAAJ&amp;hl=en</t>
@@ -141,7 +161,7 @@
     <t xml:space="preserve">SASIKALA </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-104.jpg</t>
+    <t>/static/images/profile_photos/003/VEC-003-04-104.webp</t>
   </si>
   <si>
     <t>https://scholar.google.com/scholar?hl=en&amp;as_sdt=0%2C5&amp;q=sasikala+sakkaravarthy&amp;btnG=</t>
@@ -159,7 +179,7 @@
     <t xml:space="preserve">SIVARAJ </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-142.jpg</t>
+    <t>/static/images/profile_photos/003/VEC-003-04-142.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/scholar_settings?hl=en#2</t>
@@ -174,7 +194,7 @@
     <t xml:space="preserve">NIRUBAN BALU </t>
   </si>
   <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-143.jpg</t>
+    <t>/static/images/profile_photos/003/VEC-003-04-143.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?user=7I58gtEAAAAJ&amp;hl=en&amp;authuser=1</t>
@@ -189,7 +209,7 @@
     <t>Dr N.Balamurugapandian</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-083.jpg</t>
+    <t>/static/images/profile_photos/003/VEC-003-04-083.webp</t>
   </si>
   <si>
     <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://scholar.google.com/citations%3Fuser%3DQ3eloVMAAAAJ%26hl%3Den&amp;ved=2ahUKEwj84crUsNiIAxX0yzgGHYPdHQIQFnoECBsQAQ&amp;usg=AOvVaw2QWgTNvtazIV1qsgX6jZAh</t>
@@ -212,36 +232,13 @@
   </si>
   <si>
     <t>VEC-003-04-083</t>
-  </si>
-  <si>
-    <t>Professor &amp; Head</t>
-  </si>
-  <si>
-    <t>VEC-003-01-173</t>
-  </si>
-  <si>
-    <t>https://scholar.google.co.in/citations?user=M5UgVCMAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Abdul-Razak-Mohamed-Sikkander</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0002-8458-7448</t>
-  </si>
-  <si>
-    <t>https://publons.com/researcher/3826750/abdulrazak-mohamed-sikkander/</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId=57195150706</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/dr-abdul-razak-mohamed-sikkander-51485246?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,15 +250,16 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -282,43 +280,53 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -329,10 +337,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -370,69 +378,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,54 +466,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -513,7 +522,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -522,7 +531,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -531,7 +540,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -539,10 +548,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -571,7 +580,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -584,13 +593,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -609,15 +617,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,235 +670,253 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="31.5">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J10" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/STAFF-DATA/003.xlsx
+++ b/docs/STAFF-DATA/003.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranesh\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A40D28B5-564F-4B56-B72B-03238861BE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -46,9 +52,6 @@
     <t>unique_id</t>
   </si>
   <si>
-    <t>SIKKANDER</t>
-  </si>
-  <si>
     <t>Professor &amp; Head</t>
   </si>
   <si>
@@ -77,9 +80,6 @@
     <t>VEC-003-01-173</t>
   </si>
   <si>
-    <t>KAVITHA</t>
-  </si>
-  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
@@ -101,9 +101,6 @@
     <t>VEC-003-04-088</t>
   </si>
   <si>
-    <t>Dr. M. KAVIYA</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/003/VEC-003-04-079.webp</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>VEC-003-04-079</t>
   </si>
   <si>
-    <t>RAMA NACHIAR</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/003/VEC-003-04-119.webp</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>VEC-003-04-119</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr.ANITHA </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/003/VEC-003-04-108.webp</t>
   </si>
   <si>
@@ -158,9 +149,6 @@
     <t>VEC-003-04-108</t>
   </si>
   <si>
-    <t xml:space="preserve">SASIKALA </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/003/VEC-003-04-104.webp</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>VEC-003-04-104</t>
   </si>
   <si>
-    <t xml:space="preserve">SIVARAJ </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/003/VEC-003-04-142.webp</t>
   </si>
   <si>
@@ -191,9 +176,6 @@
     <t>VEC-003-04-142</t>
   </si>
   <si>
-    <t xml:space="preserve">NIRUBAN BALU </t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/003/VEC-003-04-143.webp</t>
   </si>
   <si>
@@ -204,9 +186,6 @@
   </si>
   <si>
     <t>VEC-003-04-143</t>
-  </si>
-  <si>
-    <t>Dr N.Balamurugapandian</t>
   </si>
   <si>
     <t>/static/images/profile_photos/003/VEC-003-04-083.webp</t>
@@ -232,13 +211,39 @@
   </si>
   <si>
     <t>VEC-003-04-083</t>
+  </si>
+  <si>
+    <t>Dr. MOHAMED SIKKANDER</t>
+  </si>
+  <si>
+    <t>KAVITHA K</t>
+  </si>
+  <si>
+    <t>Dr. KAVIYA M</t>
+  </si>
+  <si>
+    <t>RAMA NACHIAR R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. ANITHA V </t>
+  </si>
+  <si>
+    <t>SASIKALA S</t>
+  </si>
+  <si>
+    <t>SIVARAJ C</t>
+  </si>
+  <si>
+    <t>NIRUBAN BALU T</t>
+  </si>
+  <si>
+    <t>Dr Balamurugapandian N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,29 +309,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -337,10 +339,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -378,71 +380,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,7 +472,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -493,11 +495,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -506,13 +508,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -522,7 +524,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -531,7 +533,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -540,7 +542,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -548,10 +550,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -616,29 +618,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,250 +668,229 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="J7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+      <c r="I10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="J10" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="31.5">
-      <c r="A10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/003.xlsx
+++ b/docs/STAFF-DATA/003.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranesh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A40D28B5-564F-4B56-B72B-03238861BE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +51,6 @@
     <t>unique_id</t>
   </si>
   <si>
-    <t>Professor &amp; Head</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/003/VEC-003-01-173.webp
 .jpg</t>
   </si>
@@ -238,12 +234,15 @@
   </si>
   <si>
     <t>Dr Balamurugapandian N</t>
+  </si>
+  <si>
+    <t>Associate Professor &amp; Head</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,14 +617,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +632,8 @@
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -670,227 +670,227 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" t="s">
+      <c r="I8" t="s">
         <v>52</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>53</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>59</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>60</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>61</v>
-      </c>
-      <c r="J9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>28</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/003.xlsx
+++ b/docs/STAFF-DATA/003.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,8 +46,13 @@
     <t>unique_id</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/003/VEC-003-01-173.webp
-.jpg</t>
+    <t>Dr. MOHAMED SIKKANDER</t>
+  </si>
+  <si>
+    <t>Associate Professor &amp; Head</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/003/VEC-003-01-173.webp</t>
   </si>
   <si>
     <t>https://scholar.google.co.in/citations?user=M5UgVCMAAAAJ&amp;hl=en</t>
@@ -76,9 +76,87 @@
     <t>VEC-003-01-173</t>
   </si>
   <si>
+    <t>SASIKALA S</t>
+  </si>
+  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
+    <t>/static/images/profile_photos/003/VEC-003-04-104.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/scholar?hl=en&amp;as_sdt=0%2C5&amp;q=sasikala+sakkaravarthy&amp;btnG=</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Sasikala-Sakkaravarthy</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/</t>
+  </si>
+  <si>
+    <t>VEC-003-04-104</t>
+  </si>
+  <si>
+    <t>RAMA NACHIAR R</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/003/VEC-003-04-119.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=lEyCJOYAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rama-nachiar-8003ba241/?originalSubdomain=in</t>
+  </si>
+  <si>
+    <t>VEC-003-04-119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. ANITHA V </t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/003/VEC-003-04-108.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=DcavHoIAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Anitha-Vigneswaran-2</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8178-4390</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>https://www.webofscience.com/wos/author/record/AGO-1917-2022</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/in/anitha-vigneshwaran-6364761b0</t>
+  </si>
+  <si>
+    <t>VEC-003-04-108</t>
+  </si>
+  <si>
+    <t>SIVARAJ C</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/003/VEC-003-04-142.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.co.in/scholar_settings?hl=en#2</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/siva-raj-575a1032b/?lipi=urn%3Ali%3Apage%3Ad_flagship3_people%3BSSJGIiJsTYiq8fjxVgZs7A%3D%3D</t>
+  </si>
+  <si>
+    <t>VEC-003-04-142</t>
+  </si>
+  <si>
+    <t>KAVITHA K</t>
+  </si>
+  <si>
     <t>/static/images/profile_photos/003/VEC-003-04-088.webp</t>
   </si>
   <si>
@@ -97,79 +175,7 @@
     <t>VEC-003-04-088</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-079.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=HFXOLX4AAAAJ</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kaviya-m-89622a32b/</t>
-  </si>
-  <si>
-    <t>VEC-003-04-079</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-119.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=lEyCJOYAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/rama-nachiar-8003ba241/?originalSubdomain=in</t>
-  </si>
-  <si>
-    <t>VEC-003-04-119</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-108.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=DcavHoIAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Anitha-Vigneswaran-2</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0002-8178-4390</t>
-  </si>
-  <si>
-    <t>nil</t>
-  </si>
-  <si>
-    <t>https://www.webofscience.com/wos/author/record/AGO-1917-2022</t>
-  </si>
-  <si>
-    <t>https://in.linkedin.com/in/anitha-vigneshwaran-6364761b0</t>
-  </si>
-  <si>
-    <t>VEC-003-04-108</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-104.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/scholar?hl=en&amp;as_sdt=0%2C5&amp;q=sasikala+sakkaravarthy&amp;btnG=</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Sasikala-Sakkaravarthy</t>
-  </si>
-  <si>
-    <t>https://in.linkedin.com/</t>
-  </si>
-  <si>
-    <t>VEC-003-04-104</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-142.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.co.in/scholar_settings?hl=en#2</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/siva-raj-575a1032b/?lipi=urn%3Ali%3Apage%3Ad_flagship3_people%3BSSJGIiJsTYiq8fjxVgZs7A%3D%3D</t>
-  </si>
-  <si>
-    <t>VEC-003-04-142</t>
+    <t>NIRUBAN BALU T</t>
   </si>
   <si>
     <t>/static/images/profile_photos/003/VEC-003-04-143.webp</t>
@@ -182,6 +188,9 @@
   </si>
   <si>
     <t>VEC-003-04-143</t>
+  </si>
+  <si>
+    <t>Dr Balamurugapandian N</t>
   </si>
   <si>
     <t>/static/images/profile_photos/003/VEC-003-04-083.webp</t>
@@ -209,40 +218,26 @@
     <t>VEC-003-04-083</t>
   </si>
   <si>
-    <t>Dr. MOHAMED SIKKANDER</t>
-  </si>
-  <si>
-    <t>KAVITHA K</t>
-  </si>
-  <si>
     <t>Dr. KAVIYA M</t>
   </si>
   <si>
-    <t>RAMA NACHIAR R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. ANITHA V </t>
-  </si>
-  <si>
-    <t>SASIKALA S</t>
-  </si>
-  <si>
-    <t>SIVARAJ C</t>
-  </si>
-  <si>
-    <t>NIRUBAN BALU T</t>
-  </si>
-  <si>
-    <t>Dr Balamurugapandian N</t>
-  </si>
-  <si>
-    <t>Associate Professor &amp; Head</t>
+    <t>/static/images/profile_photos/003/VEC-003-04-079.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=HFXOLX4AAAAJ</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kaviya-m-89622a32b/</t>
+  </si>
+  <si>
+    <t>VEC-003-04-079</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,7 +249,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -308,26 +303,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -338,10 +336,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -379,71 +377,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,7 +469,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -494,11 +492,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -507,13 +505,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -523,7 +521,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -532,7 +530,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -541,7 +539,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -549,10 +547,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -623,20 +621,23 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="25.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,229 +669,250 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="32.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="32.25">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/003.xlsx
+++ b/docs/STAFF-DATA/003.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BEEF49-4559-4963-992E-85D5414BAA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -231,13 +237,21 @@
   </si>
   <si>
     <t>VEC-003-04-079</t>
+  </si>
+  <si>
+    <t>MOUNICA A</t>
+  </si>
+  <si>
+    <t>VEC-003-04-600</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/003/VEC-003-04-600.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,29 +317,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -336,10 +347,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -377,71 +388,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,7 +480,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -492,11 +503,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -505,13 +516,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -521,7 +532,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -530,7 +541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -539,7 +550,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -547,10 +558,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -615,29 +626,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,250 +677,243 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="32.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="32.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/003.xlsx
+++ b/docs/STAFF-DATA/003.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BEEF49-4559-4963-992E-85D5414BAA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A2DB2D-F395-4152-8774-9FE5C77B89DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -239,13 +239,16 @@
     <t>VEC-003-04-079</t>
   </si>
   <si>
-    <t>MOUNICA A</t>
-  </si>
-  <si>
-    <t>VEC-003-04-600</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/003/VEC-003-04-600.webp</t>
+    <t>Lab Instructor</t>
+  </si>
+  <si>
+    <t>VEC-003-05-3</t>
+  </si>
+  <si>
+    <t>KUMAR V</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/003/VEC-003-05-3.webp</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -313,11 +316,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,6 +343,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +652,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,14 +922,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
         <v>73</v>

--- a/docs/STAFF-DATA/003.xlsx
+++ b/docs/STAFF-DATA/003.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A2DB2D-F395-4152-8774-9FE5C77B89DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -249,12 +248,21 @@
   </si>
   <si>
     <t>/static/images/profile_photos/003/VEC-003-05-3.webp</t>
+  </si>
+  <si>
+    <t>MOUNICA A</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/003/VEC-003-04-626.webp</t>
+  </si>
+  <si>
+    <t>VEC-003-04-626</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,14 +653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,16 +930,30 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>75</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>73</v>
       </c>
     </row>

--- a/docs/STAFF-DATA/003.xlsx
+++ b/docs/STAFF-DATA/003.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29DAADE-DD62-4201-9488-A43B56739B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,15 +242,9 @@
     <t>Lab Instructor</t>
   </si>
   <si>
-    <t>VEC-003-05-3</t>
-  </si>
-  <si>
     <t>KUMAR V</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/003/VEC-003-05-3.webp</t>
-  </si>
-  <si>
     <t>MOUNICA A</t>
   </si>
   <si>
@@ -257,12 +252,18 @@
   </si>
   <si>
     <t>VEC-003-04-626</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/003/VEC-003-05-003.webp</t>
+  </si>
+  <si>
+    <t>VEC-003-05-003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,14 +654,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -931,30 +932,30 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/003.xlsx
+++ b/docs/STAFF-DATA/003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29DAADE-DD62-4201-9488-A43B56739B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2545C71D-3043-43D7-9424-124265EC44B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>VEC-003-01-173</t>
   </si>
   <si>
-    <t>SASIKALA S</t>
-  </si>
-  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>VEC-003-04-104</t>
   </si>
   <si>
-    <t>RAMA NACHIAR R</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/003/VEC-003-04-119.webp</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>VEC-003-04-108</t>
   </si>
   <si>
-    <t>SIVARAJ C</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/003/VEC-003-04-142.webp</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>VEC-003-04-142</t>
   </si>
   <si>
-    <t>KAVITHA K</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/003/VEC-003-04-088.webp</t>
   </si>
   <si>
@@ -181,9 +169,6 @@
     <t>VEC-003-04-088</t>
   </si>
   <si>
-    <t>NIRUBAN BALU T</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/003/VEC-003-04-143.webp</t>
   </si>
   <si>
@@ -194,9 +179,6 @@
   </si>
   <si>
     <t>VEC-003-04-143</t>
-  </si>
-  <si>
-    <t>Dr Balamurugapandian N</t>
   </si>
   <si>
     <t>/static/images/profile_photos/003/VEC-003-04-083.webp</t>
@@ -242,12 +224,6 @@
     <t>Lab Instructor</t>
   </si>
   <si>
-    <t>KUMAR V</t>
-  </si>
-  <si>
-    <t>MOUNICA A</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/003/VEC-003-04-626.webp</t>
   </si>
   <si>
@@ -258,6 +234,30 @@
   </si>
   <si>
     <t>VEC-003-05-003</t>
+  </si>
+  <si>
+    <t>Dr BALAMURUGAPANDIAN N</t>
+  </si>
+  <si>
+    <t>Mrs. SASIKALA S</t>
+  </si>
+  <si>
+    <t>Mrs. RAMA NACHIAR R</t>
+  </si>
+  <si>
+    <t>Mr. SIVARAJ C</t>
+  </si>
+  <si>
+    <t>Mrs. KAVITHA K</t>
+  </si>
+  <si>
+    <t>Mr. NIRUBAN BALU T</t>
+  </si>
+  <si>
+    <t>Mrs. MOUNICA A</t>
+  </si>
+  <si>
+    <t>Mr. KUMAR V</t>
   </si>
 </sst>
 </file>
@@ -660,13 +660,13 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
@@ -739,223 +739,223 @@
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="J6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="I7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="J7" t="s">
         <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="I9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
+      <c r="J9" t="s">
         <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/003.xlsx
+++ b/docs/STAFF-DATA/003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2545C71D-3043-43D7-9424-124265EC44B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E655BE73-2B1D-42EA-9C4F-21CAD30A5EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15084" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <t>VEC-003-05-003</t>
   </si>
   <si>
-    <t>Dr BALAMURUGAPANDIAN N</t>
-  </si>
-  <si>
     <t>Mrs. SASIKALA S</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>Mr. SIVARAJ C</t>
   </si>
   <si>
-    <t>Mrs. KAVITHA K</t>
-  </si>
-  <si>
     <t>Mr. NIRUBAN BALU T</t>
   </si>
   <si>
@@ -258,6 +252,12 @@
   </si>
   <si>
     <t>Mr. KUMAR V</t>
+  </si>
+  <si>
+    <t>Dr. KAVITHA K</t>
+  </si>
+  <si>
+    <t>Dr. BALAMURUGAPANDIAN N</t>
   </si>
 </sst>
 </file>
@@ -739,30 +739,33 @@
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -814,53 +817,50 @@
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>66</v>
